--- a/excel/M1-S1/M1-S1-MAGI.xlsx
+++ b/excel/M1-S1/M1-S1-MAGI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M1-S1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Desktop\backendespi\excel\M1-S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E939721A-2042-4C6D-9DC7-4D8F035C4040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C594313-F63E-47E8-9E23-3EF93388CBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="18900" windowHeight="10890" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7956" yWindow="2124" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
